--- a/Assets/ExcelDatas/Pattern.xlsx
+++ b/Assets/ExcelDatas/Pattern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E6F49F-C9C0-40A9-B8BA-C9F8E195B18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61EE1A9-C6FE-4EF5-B07E-1AECCB157C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
   <si>
     <t>ALL:KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,17 +74,6 @@
     <t>열2</t>
   </si>
   <si>
-    <t>열3</t>
-  </si>
-  <si>
-    <t>Cnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DESIGN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>패턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스테이지1_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,6 +91,48 @@
   </si>
   <si>
     <t>enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지1_2</t>
+  </si>
+  <si>
+    <t>스테이지1_3</t>
+  </si>
+  <si>
+    <t>스테이지1_4</t>
+  </si>
+  <si>
+    <t>스테이지1_5</t>
+  </si>
+  <si>
+    <t>스테이지1_6</t>
+  </si>
+  <si>
+    <t>스테이지1_7</t>
+  </si>
+  <si>
+    <t>스테이지1_8</t>
+  </si>
+  <si>
+    <t>스테이지1_9</t>
+  </si>
+  <si>
+    <t>열1</t>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PatternPrintInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterID</t>
+  </si>
+  <si>
+    <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,139 +210,140 @@
   <dxfs count="12">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -395,15 +423,17 @@
   <autoFilter ref="A3:J12" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{A1B50B1E-34DC-4AE8-8B12-DAE7B26F3FE7}" name="패턴" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Vertical1" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="Vertical2" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="Vertical3" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Vertical4" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="Vertical5" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{AFE0E3BE-DBE2-472F-B91A-2CC2FEFC2192}" name="Cnt" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{3B2A1E1A-0AF5-4CA2-8514-2236250EEDF9}" name="열2" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{80668457-D3CD-408E-B4F0-F5A72B27FD7D}" name="열3" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{A1B50B1E-34DC-4AE8-8B12-DAE7B26F3FE7}" name="Name" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Vertical1" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="Vertical2" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="Vertical3" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Vertical4" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="Vertical5" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{AFE0E3BE-DBE2-472F-B91A-2CC2FEFC2192}" name="PatternPrintInterval" dataDxfId="2">
+      <calculatedColumnFormula array="1">COUNTIF(표2[[#This Row],[Vertical1]:[Vertical5]],Monster)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{3B2A1E1A-0AF5-4CA2-8514-2236250EEDF9}" name="열1" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{80668457-D3CD-408E-B4F0-F5A72B27FD7D}" name="열2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -709,7 +739,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H4" sqref="H4:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -727,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -750,22 +780,22 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -773,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -791,13 +821,13 @@
         <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -805,19 +835,25 @@
         <v>10001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1000</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -825,8 +861,26 @@
       <c r="A5" s="1">
         <v>10002</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1000</v>
       </c>
       <c r="J5" s="1"/>
     </row>
@@ -834,8 +888,26 @@
       <c r="A6" s="1">
         <v>10003</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1000</v>
       </c>
       <c r="J6" s="1"/>
     </row>
@@ -843,8 +915,26 @@
       <c r="A7" s="1">
         <v>10004</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1000</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -852,8 +942,26 @@
       <c r="A8" s="1">
         <v>10005</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1000</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -861,8 +969,26 @@
       <c r="A9" s="1">
         <v>10006</v>
       </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1000</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -870,8 +996,26 @@
       <c r="A10" s="1">
         <v>10007</v>
       </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1000</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -879,8 +1023,26 @@
       <c r="A11" s="1">
         <v>10008</v>
       </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1000</v>
       </c>
       <c r="J11" s="1"/>
     </row>
@@ -888,8 +1050,26 @@
       <c r="A12" s="1">
         <v>10009</v>
       </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1000</v>
       </c>
       <c r="J12" s="1"/>
     </row>

--- a/Assets/ExcelDatas/Pattern.xlsx
+++ b/Assets/ExcelDatas/Pattern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61EE1A9-C6FE-4EF5-B07E-1AECCB157C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F830B9-CFEC-4DAC-872E-ECEEA2707603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
   <si>
     <t>ALL:KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,21 +82,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Trap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지1_2</t>
-  </si>
-  <si>
     <t>스테이지1_3</t>
   </si>
   <si>
@@ -118,9 +107,6 @@
     <t>스테이지1_9</t>
   </si>
   <si>
-    <t>열1</t>
-  </si>
-  <si>
     <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,6 +119,18 @@
   </si>
   <si>
     <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,23 +205,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <strike val="0"/>
@@ -419,21 +401,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:J12" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A3:J12" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{A1B50B1E-34DC-4AE8-8B12-DAE7B26F3FE7}" name="Name" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Vertical1" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="Vertical2" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="Vertical3" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Vertical4" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="Vertical5" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{AFE0E3BE-DBE2-472F-B91A-2CC2FEFC2192}" name="PatternPrintInterval" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:I12" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A3:I12" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{A1B50B1E-34DC-4AE8-8B12-DAE7B26F3FE7}" name="Name" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Vertical1" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="Vertical2" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="Vertical3" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Vertical4" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="Vertical5" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{AFE0E3BE-DBE2-472F-B91A-2CC2FEFC2192}" name="PatternPrintInterval" dataDxfId="1">
       <calculatedColumnFormula array="1">COUNTIF(표2[[#This Row],[Vertical1]:[Vertical5]],Monster)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{3B2A1E1A-0AF5-4CA2-8514-2236250EEDF9}" name="열1" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{80668457-D3CD-408E-B4F0-F5A72B27FD7D}" name="열2" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{3B2A1E1A-0AF5-4CA2-8514-2236250EEDF9}" name="MonsterCnt" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -739,7 +720,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -747,8 +728,8 @@
     <col min="1" max="1" width="9.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.296875" style="1" customWidth="1"/>
     <col min="3" max="7" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.796875" style="1"/>
+    <col min="8" max="8" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
@@ -783,19 +764,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -803,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -821,10 +802,10 @@
         <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
@@ -835,25 +816,28 @@
         <v>10001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1">
         <v>1000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -862,25 +846,28 @@
         <v>10002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1">
         <v>1000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
       </c>
       <c r="J5" s="1"/>
     </row>
@@ -889,25 +876,28 @@
         <v>10003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1">
         <v>1000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
       </c>
       <c r="J6" s="1"/>
     </row>
@@ -916,25 +906,28 @@
         <v>10004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1">
         <v>1000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -943,25 +936,28 @@
         <v>10005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1">
         <v>1000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -970,25 +966,28 @@
         <v>10006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H9" s="1">
         <v>1000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -997,25 +996,28 @@
         <v>10007</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1">
         <v>1000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -1024,25 +1026,28 @@
         <v>10008</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H11" s="1">
         <v>1000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3</v>
       </c>
       <c r="J11" s="1"/>
     </row>
@@ -1051,25 +1056,28 @@
         <v>10009</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H12" s="1">
         <v>1000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
       </c>
       <c r="J12" s="1"/>
     </row>

--- a/Assets/ExcelDatas/Pattern.xlsx
+++ b/Assets/ExcelDatas/Pattern.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F830B9-CFEC-4DAC-872E-ECEEA2707603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D864F91-627D-4CA9-BA09-E7DC770CEA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
-    <sheet name="PaternTable" sheetId="3" r:id="rId1"/>
+    <sheet name="PatternTable" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,11 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
-  <si>
-    <t>ALL:KEY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
   <si>
     <t>ALL</t>
   </si>
@@ -71,9 +67,6 @@
     <t>Vertical5</t>
   </si>
   <si>
-    <t>열2</t>
-  </si>
-  <si>
     <t>DESIGN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PatternPrintInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MonsterID</t>
   </si>
   <si>
@@ -131,6 +120,22 @@
   </si>
   <si>
     <t>패턴2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL;KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PatternInterval</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +416,7 @@
     <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="Vertical3" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{41E40D0A-EB00-4101-9E22-C10A1824DF65}" name="Vertical4" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{5657C871-CF87-4126-98E3-71E7CF24BD2F}" name="Vertical5" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{AFE0E3BE-DBE2-472F-B91A-2CC2FEFC2192}" name="PatternPrintInterval" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{AFE0E3BE-DBE2-472F-B91A-2CC2FEFC2192}" name="PatternInterval" dataDxfId="1">
       <calculatedColumnFormula array="1">COUNTIF(표2[[#This Row],[Vertical1]:[Vertical5]],Monster)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{3B2A1E1A-0AF5-4CA2-8514-2236250EEDF9}" name="MonsterCnt" dataDxfId="0"/>
@@ -717,121 +722,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.296875" style="1" customWidth="1"/>
-    <col min="3" max="7" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
+    <col min="3" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1">
         <v>1000</v>
@@ -839,29 +853,28 @@
       <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1">
         <v>1000</v>
@@ -869,29 +882,28 @@
       <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1">
         <v>1000</v>
@@ -899,29 +911,28 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>10004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H7" s="1">
         <v>1000</v>
@@ -929,29 +940,28 @@
       <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>10005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8" s="1">
         <v>1000</v>
@@ -959,29 +969,28 @@
       <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>10006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1">
         <v>1000</v>
@@ -989,29 +998,28 @@
       <c r="I9" s="1">
         <v>3</v>
       </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>10007</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H10" s="1">
         <v>1000</v>
@@ -1019,29 +1027,28 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10008</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H11" s="1">
         <v>1000</v>
@@ -1049,29 +1056,28 @@
       <c r="I11" s="1">
         <v>3</v>
       </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10009</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12" s="1">
         <v>1000</v>
@@ -1079,10 +1085,6 @@
       <c r="I12" s="1">
         <v>2</v>
       </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="I15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ExcelDatas/Pattern.xlsx
+++ b/Assets/ExcelDatas/Pattern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D864F91-627D-4CA9-BA09-E7DC770CEA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C24808-8AE5-4B05-BB97-9C0F688605A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>ALL</t>
   </si>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Trap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스테이지1_3</t>
   </si>
   <si>
@@ -98,13 +94,6 @@
   </si>
   <si>
     <t>스테이지1_9</t>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterID</t>
   </si>
   <si>
     <t>Name</t>
@@ -724,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -740,7 +729,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -761,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -790,10 +779,10 @@
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -801,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -819,10 +808,10 @@
         <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -830,22 +819,22 @@
         <v>10001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1010</v>
       </c>
       <c r="H4" s="1">
         <v>1000</v>
@@ -859,22 +848,22 @@
         <v>10002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1010</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <v>1000</v>
@@ -888,22 +877,22 @@
         <v>10003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
       </c>
       <c r="H6" s="1">
         <v>1000</v>
@@ -917,22 +906,22 @@
         <v>10004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1010</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
       </c>
       <c r="H7" s="1">
         <v>1000</v>
@@ -946,22 +935,22 @@
         <v>10005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
       </c>
       <c r="H8" s="1">
         <v>1000</v>
@@ -975,22 +964,22 @@
         <v>10006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1010</v>
       </c>
       <c r="H9" s="1">
         <v>1000</v>
@@ -1004,22 +993,22 @@
         <v>10007</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1013</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1013</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
       </c>
       <c r="H10" s="1">
         <v>1000</v>
@@ -1033,22 +1022,22 @@
         <v>10008</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1010</v>
       </c>
       <c r="H11" s="1">
         <v>1000</v>
@@ -1062,22 +1051,22 @@
         <v>10009</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1010</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1010</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
       </c>
       <c r="H12" s="1">
         <v>1000</v>

--- a/Assets/ExcelDatas/Pattern.xlsx
+++ b/Assets/ExcelDatas/Pattern.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C24808-8AE5-4B05-BB97-9C0F688605A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="PatternTable" sheetId="3" r:id="rId1"/>
@@ -713,11 +713,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
@@ -727,7 +727,7 @@
     <col min="10" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -756,7 +756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -785,7 +785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -814,7 +814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
@@ -843,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
         <v>10003</v>
       </c>
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>10004</v>
       </c>
@@ -930,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A8" s="1">
         <v>10005</v>
       </c>
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A9" s="1">
         <v>10006</v>
       </c>
@@ -988,7 +988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A10" s="1">
         <v>10007</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A11" s="1">
         <v>10008</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A12" s="1">
         <v>10009</v>
       </c>
